--- a/ACTUALIZACION_DE_PAGOS_temp.xlsx
+++ b/ACTUALIZACION_DE_PAGOS_temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d641b1c98734929/Escritorio/sw_telefonica3/sw_telefonica/gestion_pagos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inelcomlatam-my.sharepoint.com/personal/miguel_olivares_b2b_inelcom_cl/Documents/Escritorio/sw_tele/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{4DAB6A1C-4E96-4E27-9EB2-68E5E260AC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{811AA244-890D-4B1D-97A2-A5A08CCFC2C3}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{4DAB6A1C-4E96-4E27-9EB2-68E5E260AC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E102E4-393F-4F9E-9024-33BF4A92293C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BAE4AF6B-869D-4E9C-9BCF-457157DDEBF8}"/>
+    <workbookView minimized="1" xWindow="6825" yWindow="6825" windowWidth="15375" windowHeight="7785" xr2:uid="{BAE4AF6B-869D-4E9C-9BCF-457157DDEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1567,10 +1567,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,18 +1889,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C385" sqref="C385"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C396" sqref="C396"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="86.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1964,7 +1960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +2200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2344,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2404,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2464,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2504,7 +2500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2584,7 +2580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2644,7 +2640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2684,7 +2680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2704,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2724,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +2780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2804,7 +2800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2824,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2844,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2864,7 +2860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2884,7 +2880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2924,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +2940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2964,7 +2960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -3004,7 +3000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -3024,7 +3020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -3044,7 +3040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -3064,7 +3060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -3084,7 +3080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -3124,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3144,7 +3140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -3164,7 +3160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -3184,7 +3180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3204,7 +3200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3224,7 +3220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -3244,7 +3240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3264,7 +3260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3284,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3304,7 +3300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3324,7 +3320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -3344,7 +3340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -3364,7 +3360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3404,7 +3400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -3424,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -3444,7 +3440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -3464,7 +3460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>68</v>
       </c>
@@ -3484,7 +3480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>68</v>
       </c>
@@ -3504,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -3544,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -3564,7 +3560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -3584,7 +3580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -3624,7 +3620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>68</v>
       </c>
@@ -3644,7 +3640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -3664,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -3684,7 +3680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>68</v>
       </c>
@@ -3704,7 +3700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>68</v>
       </c>
@@ -3724,7 +3720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>68</v>
       </c>
@@ -3744,7 +3740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -3764,7 +3760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -3784,7 +3780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -3804,7 +3800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>68</v>
       </c>
@@ -3824,7 +3820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>68</v>
       </c>
@@ -3844,7 +3840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -3864,7 +3860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -3884,7 +3880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>68</v>
       </c>
@@ -3904,7 +3900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>68</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -3944,7 +3940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -3964,7 +3960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>68</v>
       </c>
@@ -3984,7 +3980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>68</v>
       </c>
@@ -4004,7 +4000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -4024,7 +4020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>68</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>68</v>
       </c>
@@ -4064,7 +4060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>68</v>
       </c>
@@ -4084,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>68</v>
       </c>
@@ -4104,7 +4100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>68</v>
       </c>
@@ -4124,7 +4120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -4144,7 +4140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>68</v>
       </c>
@@ -4164,7 +4160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -4184,7 +4180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>68</v>
       </c>
@@ -4204,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>68</v>
       </c>
@@ -4224,7 +4220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>68</v>
       </c>
@@ -4244,7 +4240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>68</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>68</v>
       </c>
@@ -4284,7 +4280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>68</v>
       </c>
@@ -4304,7 +4300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -4324,7 +4320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>68</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>68</v>
       </c>
@@ -4364,7 +4360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>68</v>
       </c>
@@ -4384,7 +4380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>68</v>
       </c>
@@ -4404,7 +4400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -4424,7 +4420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -4484,7 +4480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -4524,7 +4520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -4544,7 +4540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -4584,7 +4580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -4604,7 +4600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -4624,7 +4620,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -4644,7 +4640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4664,7 +4660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -4684,7 +4680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -4704,7 +4700,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -4724,7 +4720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -4744,7 +4740,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4764,7 +4760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -4804,7 +4800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4824,7 +4820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -4844,7 +4840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +4860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -4884,7 +4880,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -4904,7 +4900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -4924,7 +4920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -4944,7 +4940,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -4964,7 +4960,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -4984,7 +4980,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -5004,7 +5000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -5024,7 +5020,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -5044,7 +5040,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -5064,7 +5060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -5104,7 +5100,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -5124,7 +5120,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -5144,7 +5140,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -5164,7 +5160,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -5184,7 +5180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -5204,7 +5200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -5224,7 +5220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -5264,7 +5260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -5284,7 +5280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -5304,7 +5300,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -5324,7 +5320,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -5344,7 +5340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -5364,7 +5360,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -5384,7 +5380,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -5404,7 +5400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -5424,7 +5420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -5444,7 +5440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -5464,7 +5460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -5504,7 +5500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -5524,7 +5520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -5544,7 +5540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -5564,7 +5560,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -5584,7 +5580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5604,7 +5600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -5624,7 +5620,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -5644,7 +5640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -5664,7 +5660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -5687,7 +5683,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -5767,7 +5763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -5807,7 +5803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -5847,7 +5843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -5867,7 +5863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -5887,7 +5883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -5947,7 +5943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -5987,7 +5983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -6007,7 +6003,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>77</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>77</v>
       </c>
@@ -6087,7 +6083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -6107,7 +6103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -6167,7 +6163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -6187,7 +6183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -6207,7 +6203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -6227,7 +6223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -6247,7 +6243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -6267,7 +6263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -6287,7 +6283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -6307,7 +6303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -6327,7 +6323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -6347,7 +6343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -6367,7 +6363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -6407,7 +6403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -6427,7 +6423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -6447,7 +6443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -6467,7 +6463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -6487,7 +6483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -6507,7 +6503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -6527,7 +6523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -6547,7 +6543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -6567,7 +6563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -6587,7 +6583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -6607,7 +6603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -6627,7 +6623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -6647,7 +6643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -6667,7 +6663,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -6687,7 +6683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -6707,7 +6703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -6747,7 +6743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -6767,7 +6763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -6787,7 +6783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -6807,7 +6803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -6827,7 +6823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -6847,7 +6843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -6867,7 +6863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -6887,7 +6883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -6907,7 +6903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -6927,7 +6923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -6947,7 +6943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -6967,7 +6963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -6987,7 +6983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -7007,7 +7003,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -7027,7 +7023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -7047,7 +7043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +7063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -7087,7 +7083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -7107,7 +7103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>68</v>
       </c>
@@ -7127,7 +7123,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>68</v>
       </c>
@@ -7147,7 +7143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>68</v>
       </c>
@@ -7167,7 +7163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>68</v>
       </c>
@@ -7187,7 +7183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>68</v>
       </c>
@@ -7207,7 +7203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>68</v>
       </c>
@@ -7227,7 +7223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>68</v>
       </c>
@@ -7247,7 +7243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>68</v>
       </c>
@@ -7267,7 +7263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>68</v>
       </c>
@@ -7287,7 +7283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>68</v>
       </c>
@@ -7307,7 +7303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>68</v>
       </c>
@@ -7327,7 +7323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -7347,7 +7343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>68</v>
       </c>
@@ -7367,7 +7363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>68</v>
       </c>
@@ -7387,7 +7383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>68</v>
       </c>
@@ -7407,7 +7403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>68</v>
       </c>
@@ -7427,7 +7423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>68</v>
       </c>
@@ -7447,7 +7443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>68</v>
       </c>
@@ -7467,7 +7463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>68</v>
       </c>
@@ -7487,7 +7483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>68</v>
       </c>
@@ -7507,7 +7503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>68</v>
       </c>
@@ -7527,7 +7523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>68</v>
       </c>
@@ -7547,7 +7543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>68</v>
       </c>
@@ -7567,7 +7563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>68</v>
       </c>
@@ -7587,7 +7583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>68</v>
       </c>
@@ -7607,7 +7603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>68</v>
       </c>
@@ -7627,7 +7623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>68</v>
       </c>
@@ -7647,7 +7643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>68</v>
       </c>
@@ -7667,7 +7663,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>68</v>
       </c>
@@ -7687,7 +7683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>68</v>
       </c>
@@ -7707,7 +7703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>68</v>
       </c>
@@ -7727,7 +7723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>68</v>
       </c>
@@ -7747,7 +7743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>68</v>
       </c>
@@ -7767,7 +7763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>68</v>
       </c>
@@ -7787,7 +7783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>68</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>68</v>
       </c>
@@ -7827,7 +7823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>68</v>
       </c>
@@ -7847,7 +7843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>68</v>
       </c>
@@ -7867,7 +7863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>68</v>
       </c>
@@ -7887,7 +7883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>68</v>
       </c>
@@ -7907,7 +7903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>68</v>
       </c>
@@ -7927,7 +7923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>68</v>
       </c>
@@ -7947,7 +7943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>68</v>
       </c>
@@ -7967,7 +7963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>68</v>
       </c>
@@ -7987,7 +7983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>68</v>
       </c>
@@ -8007,7 +8003,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>68</v>
       </c>
@@ -8027,7 +8023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>68</v>
       </c>
@@ -8047,7 +8043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>68</v>
       </c>
@@ -8067,7 +8063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>68</v>
       </c>
@@ -8087,7 +8083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>68</v>
       </c>
@@ -8107,7 +8103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>68</v>
       </c>
@@ -8127,7 +8123,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>68</v>
       </c>
@@ -8147,7 +8143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>404</v>
       </c>
@@ -8167,7 +8163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>68</v>
       </c>
@@ -8187,7 +8183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>68</v>
       </c>
@@ -8207,7 +8203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>68</v>
       </c>
@@ -8227,7 +8223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>68</v>
       </c>
@@ -8247,7 +8243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>68</v>
       </c>
@@ -8267,7 +8263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>68</v>
       </c>
@@ -8287,7 +8283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>68</v>
       </c>
@@ -8307,7 +8303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>68</v>
       </c>
@@ -8327,7 +8323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>68</v>
       </c>
@@ -8347,7 +8343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>68</v>
       </c>
@@ -8367,7 +8363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>68</v>
       </c>
@@ -8387,7 +8383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>68</v>
       </c>
@@ -8407,7 +8403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>68</v>
       </c>
@@ -8427,7 +8423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>68</v>
       </c>
@@ -8447,7 +8443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>68</v>
       </c>
@@ -8467,7 +8463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>68</v>
       </c>
@@ -8487,7 +8483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>68</v>
       </c>
@@ -8507,7 +8503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>68</v>
       </c>
@@ -8527,7 +8523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>68</v>
       </c>
@@ -8547,7 +8543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>68</v>
       </c>
@@ -8567,7 +8563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>68</v>
       </c>
@@ -8587,7 +8583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>68</v>
       </c>
@@ -8607,7 +8603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>68</v>
       </c>
@@ -8627,7 +8623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>68</v>
       </c>
@@ -8647,7 +8643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>68</v>
       </c>
@@ -8667,7 +8663,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>68</v>
       </c>
@@ -8687,7 +8683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>68</v>
       </c>
@@ -8707,7 +8703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>68</v>
       </c>
@@ -8727,7 +8723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>68</v>
       </c>
@@ -8747,7 +8743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>68</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>68</v>
       </c>
@@ -8787,7 +8783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>68</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>68</v>
       </c>
@@ -8827,7 +8823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>68</v>
       </c>
@@ -8847,7 +8843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>68</v>
       </c>
@@ -8867,7 +8863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>68</v>
       </c>
@@ -8887,7 +8883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>68</v>
       </c>
@@ -8907,7 +8903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>68</v>
       </c>
@@ -8927,7 +8923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>68</v>
       </c>
@@ -8947,7 +8943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>68</v>
       </c>
@@ -8967,7 +8963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>68</v>
       </c>
@@ -8987,7 +8983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>68</v>
       </c>
@@ -9007,7 +9003,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>68</v>
       </c>
@@ -9027,7 +9023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>68</v>
       </c>
@@ -9047,7 +9043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>68</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>68</v>
       </c>
@@ -9087,7 +9083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>68</v>
       </c>
@@ -9107,7 +9103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>68</v>
       </c>
@@ -9127,7 +9123,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>68</v>
       </c>
@@ -9147,7 +9143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>68</v>
       </c>
@@ -9167,7 +9163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>68</v>
       </c>
@@ -9187,7 +9183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>68</v>
       </c>
@@ -9207,7 +9203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>68</v>
       </c>
@@ -9227,7 +9223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>68</v>
       </c>
@@ -9247,7 +9243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>68</v>
       </c>
@@ -9267,7 +9263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>68</v>
       </c>
@@ -9287,7 +9283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>68</v>
       </c>
@@ -9307,7 +9303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>68</v>
       </c>
@@ -9327,7 +9323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>68</v>
       </c>
@@ -9347,7 +9343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>68</v>
       </c>
@@ -9367,7 +9363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>68</v>
       </c>
@@ -9387,7 +9383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>68</v>
       </c>
@@ -9407,7 +9403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>404</v>
       </c>
@@ -9427,7 +9423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>68</v>
       </c>
@@ -9447,7 +9443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>68</v>
       </c>
@@ -9467,7 +9463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>68</v>
       </c>
@@ -9487,7 +9483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>68</v>
       </c>
@@ -9507,7 +9503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>68</v>
       </c>
@@ -9527,7 +9523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>68</v>
       </c>
@@ -9547,7 +9543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>68</v>
       </c>
@@ -9567,7 +9563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>68</v>
       </c>
@@ -9587,7 +9583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>68</v>
       </c>
@@ -9607,7 +9603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>68</v>
       </c>
@@ -9627,7 +9623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>68</v>
       </c>
@@ -9647,7 +9643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>68</v>
       </c>
@@ -9667,7 +9663,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>68</v>
       </c>
@@ -9687,7 +9683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>68</v>
       </c>
@@ -9707,7 +9703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>68</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>68</v>
       </c>
@@ -9747,7 +9743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>68</v>
       </c>
@@ -9767,7 +9763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>68</v>
       </c>
@@ -9787,7 +9783,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>68</v>
       </c>
@@ -9807,7 +9803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>68</v>
       </c>
@@ -9827,7 +9823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>68</v>
       </c>
@@ -9847,7 +9843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>68</v>
       </c>
@@ -9867,7 +9863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>68</v>
       </c>
@@ -9887,7 +9883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>68</v>
       </c>
@@ -9907,7 +9903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>68</v>
       </c>
@@ -9927,7 +9923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>68</v>
       </c>
@@ -9947,7 +9943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>68</v>
       </c>
@@ -9967,7 +9963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>68</v>
       </c>
@@ -9987,7 +9983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>68</v>
       </c>
@@ -10007,7 +10003,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>68</v>
       </c>
@@ -10027,7 +10023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>68</v>
       </c>
@@ -10047,7 +10043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>68</v>
       </c>
@@ -10067,7 +10063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>68</v>
       </c>
@@ -10087,7 +10083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>68</v>
       </c>
@@ -10107,7 +10103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>68</v>
       </c>
@@ -10127,7 +10123,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>68</v>
       </c>
@@ -10147,7 +10143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>68</v>
       </c>
@@ -10167,7 +10163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>68</v>
       </c>
@@ -10187,7 +10183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>68</v>
       </c>
@@ -10207,7 +10203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>68</v>
       </c>
@@ -10227,7 +10223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>68</v>
       </c>
@@ -10247,7 +10243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>68</v>
       </c>
@@ -10267,7 +10263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>68</v>
       </c>
@@ -10287,7 +10283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>68</v>
       </c>
@@ -10307,7 +10303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>6</v>
       </c>
@@ -10327,7 +10323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>6</v>
       </c>
@@ -10347,7 +10343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>6</v>
       </c>
@@ -10387,7 +10383,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -10407,7 +10403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>6</v>
       </c>
@@ -10427,7 +10423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>6</v>
       </c>
@@ -10447,7 +10443,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>6</v>
       </c>
@@ -10467,7 +10463,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>6</v>
       </c>
@@ -10487,7 +10483,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>6</v>
       </c>
@@ -10507,7 +10503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>6</v>
       </c>
@@ -10527,7 +10523,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>6</v>
       </c>
@@ -10547,7 +10543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>6</v>
       </c>
@@ -10567,7 +10563,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>6</v>
       </c>
@@ -10587,7 +10583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -10607,7 +10603,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>6</v>
       </c>
@@ -10627,7 +10623,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>6</v>
       </c>
@@ -10647,7 +10643,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>6</v>
       </c>
@@ -10667,7 +10663,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>6</v>
       </c>
@@ -10687,7 +10683,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -10707,7 +10703,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>6</v>
       </c>
@@ -10727,7 +10723,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>6</v>
       </c>
@@ -10747,7 +10743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>6</v>
       </c>
@@ -10767,7 +10763,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>6</v>
       </c>
@@ -10787,7 +10783,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -10807,7 +10803,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>6</v>
       </c>
@@ -10827,7 +10823,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>6</v>
       </c>
@@ -10847,7 +10843,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>6</v>
       </c>
@@ -10867,7 +10863,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>6</v>
       </c>
@@ -10887,7 +10883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>6</v>
       </c>
@@ -10907,7 +10903,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>6</v>
       </c>
@@ -10927,7 +10923,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>6</v>
       </c>
@@ -10947,7 +10943,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>6</v>
       </c>
@@ -10967,7 +10963,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>6</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>6</v>
       </c>
@@ -11007,7 +11003,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>6</v>
       </c>
@@ -11027,7 +11023,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -11047,7 +11043,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>6</v>
       </c>
@@ -11067,7 +11063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>6</v>
       </c>
@@ -11087,7 +11083,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>6</v>
       </c>
@@ -11107,7 +11103,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>6</v>
       </c>
@@ -11127,7 +11123,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>6</v>
       </c>
@@ -11147,7 +11143,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>6</v>
       </c>
@@ -11167,7 +11163,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>6</v>
       </c>
@@ -11187,7 +11183,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>6</v>
       </c>
@@ -11207,7 +11203,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>6</v>
       </c>
@@ -11227,7 +11223,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>6</v>
       </c>
@@ -11247,7 +11243,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>6</v>
       </c>
@@ -11267,7 +11263,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>6</v>
       </c>
@@ -11287,7 +11283,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>6</v>
       </c>
@@ -11307,7 +11303,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -11327,7 +11323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>6</v>
       </c>
@@ -11347,7 +11343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>6</v>
       </c>
@@ -11367,7 +11363,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>6</v>
       </c>
@@ -11387,7 +11383,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>6</v>
       </c>
@@ -11407,7 +11403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>6</v>
       </c>
@@ -11427,7 +11423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>6</v>
       </c>
@@ -11447,7 +11443,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>6</v>
       </c>
@@ -11467,7 +11463,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>6</v>
       </c>
@@ -11487,7 +11483,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>6</v>
       </c>
@@ -11507,7 +11503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>6</v>
       </c>
@@ -11527,7 +11523,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>6</v>
       </c>
@@ -11547,7 +11543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>6</v>
       </c>
@@ -11567,7 +11563,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>6</v>
       </c>
@@ -11587,7 +11583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>6</v>
       </c>
@@ -11607,7 +11603,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>6</v>
       </c>
@@ -11627,7 +11623,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -11647,7 +11643,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>6</v>
       </c>
@@ -11667,7 +11663,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>6</v>
       </c>
@@ -11687,7 +11683,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -11707,7 +11703,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>6</v>
       </c>
@@ -11727,7 +11723,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>6</v>
       </c>
@@ -11747,7 +11743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>6</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>6</v>
       </c>
@@ -11787,7 +11783,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>6</v>
       </c>
@@ -11807,7 +11803,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>6</v>
       </c>
@@ -11827,7 +11823,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>6</v>
       </c>
@@ -11847,7 +11843,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>6</v>
       </c>
@@ -11867,7 +11863,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>6</v>
       </c>
@@ -11887,7 +11883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>6</v>
       </c>
@@ -11907,7 +11903,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>6</v>
       </c>
@@ -11927,7 +11923,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>6</v>
       </c>
@@ -11947,7 +11943,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>6</v>
       </c>
@@ -11967,7 +11963,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>6</v>
       </c>
@@ -11987,7 +11983,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>6</v>
       </c>
@@ -12007,7 +12003,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -12027,7 +12023,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>6</v>
       </c>
@@ -12047,7 +12043,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -12067,7 +12063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>6</v>
       </c>
@@ -12087,7 +12083,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>6</v>
       </c>
@@ -12107,7 +12103,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>6</v>
       </c>
@@ -12127,7 +12123,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>6</v>
       </c>
@@ -12147,7 +12143,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>6</v>
       </c>
@@ -12167,7 +12163,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>6</v>
       </c>
@@ -12187,7 +12183,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>6</v>
       </c>
@@ -12207,7 +12203,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>6</v>
       </c>
@@ -12227,7 +12223,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>6</v>
       </c>
@@ -12247,7 +12243,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>6</v>
       </c>
@@ -12267,7 +12263,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>6</v>
       </c>
@@ -12287,7 +12283,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>6</v>
       </c>
@@ -12307,7 +12303,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>6</v>
       </c>
@@ -12327,7 +12323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>6</v>
       </c>
@@ -12347,7 +12343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>6</v>
       </c>
@@ -12367,7 +12363,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>6</v>
       </c>
@@ -12387,7 +12383,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>6</v>
       </c>
@@ -12407,7 +12403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>6</v>
       </c>
@@ -12427,7 +12423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>6</v>
       </c>
@@ -12447,7 +12443,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>6</v>
       </c>
@@ -12467,7 +12463,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>6</v>
       </c>
@@ -12487,7 +12483,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>6</v>
       </c>
@@ -12507,7 +12503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>6</v>
       </c>
@@ -12527,7 +12523,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>6</v>
       </c>
@@ -12547,7 +12543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>6</v>
       </c>
@@ -12567,7 +12563,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>6</v>
       </c>
@@ -12587,7 +12583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>6</v>
       </c>
@@ -12607,7 +12603,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>6</v>
       </c>
@@ -12627,7 +12623,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>6</v>
       </c>
@@ -12647,7 +12643,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>6</v>
       </c>
@@ -12667,7 +12663,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>68</v>
       </c>
@@ -12687,7 +12683,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>68</v>
       </c>
@@ -12707,7 +12703,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>68</v>
       </c>
@@ -12727,7 +12723,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>68</v>
       </c>
@@ -12747,7 +12743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>68</v>
       </c>
@@ -12767,7 +12763,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>68</v>
       </c>
@@ -12787,7 +12783,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>68</v>
       </c>
@@ -12807,7 +12803,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>68</v>
       </c>
@@ -12827,7 +12823,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>68</v>
       </c>
@@ -12847,7 +12843,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>68</v>
       </c>
@@ -12867,7 +12863,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>68</v>
       </c>
@@ -12887,7 +12883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>68</v>
       </c>
@@ -12907,7 +12903,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>68</v>
       </c>
@@ -12927,7 +12923,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>68</v>
       </c>
@@ -12947,7 +12943,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>68</v>
       </c>
@@ -12967,7 +12963,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>68</v>
       </c>
@@ -12987,7 +12983,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>68</v>
       </c>
@@ -13007,7 +13003,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>68</v>
       </c>
@@ -13027,7 +13023,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>68</v>
       </c>
@@ -13047,7 +13043,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>68</v>
       </c>
@@ -13067,7 +13063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>68</v>
       </c>
@@ -13087,7 +13083,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>68</v>
       </c>
@@ -13107,7 +13103,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>68</v>
       </c>
@@ -13127,7 +13123,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>68</v>
       </c>
@@ -13147,7 +13143,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>68</v>
       </c>
@@ -13167,7 +13163,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>68</v>
       </c>
@@ -13187,7 +13183,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>68</v>
       </c>
@@ -13207,7 +13203,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>68</v>
       </c>
@@ -13227,7 +13223,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>68</v>
       </c>
@@ -13247,7 +13243,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>68</v>
       </c>
@@ -13267,7 +13263,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>68</v>
       </c>
@@ -13287,7 +13283,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>68</v>
       </c>
@@ -13307,7 +13303,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>68</v>
       </c>
@@ -13327,7 +13323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>68</v>
       </c>
@@ -13347,7 +13343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>68</v>
       </c>
@@ -13367,7 +13363,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>68</v>
       </c>
@@ -13387,7 +13383,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>68</v>
       </c>
@@ -13407,7 +13403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>68</v>
       </c>
@@ -13427,7 +13423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>68</v>
       </c>
@@ -13447,7 +13443,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>68</v>
       </c>
@@ -13467,7 +13463,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>68</v>
       </c>
@@ -13487,7 +13483,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>68</v>
       </c>
@@ -13507,7 +13503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>68</v>
       </c>
@@ -13527,7 +13523,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>68</v>
       </c>
@@ -13547,7 +13543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>68</v>
       </c>
@@ -13567,7 +13563,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>68</v>
       </c>
@@ -13587,7 +13583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>68</v>
       </c>
@@ -13607,7 +13603,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>68</v>
       </c>
@@ -13627,7 +13623,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>68</v>
       </c>
@@ -13647,7 +13643,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>68</v>
       </c>
@@ -13667,7 +13663,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>68</v>
       </c>
@@ -13687,7 +13683,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>68</v>
       </c>
@@ -13707,7 +13703,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>68</v>
       </c>
@@ -13727,7 +13723,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>68</v>
       </c>
@@ -13747,7 +13743,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>68</v>
       </c>
@@ -13767,7 +13763,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>68</v>
       </c>
@@ -13787,7 +13783,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>68</v>
       </c>
@@ -13807,7 +13803,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>68</v>
       </c>
@@ -13827,7 +13823,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>68</v>
       </c>
@@ -13847,7 +13843,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>68</v>
       </c>
@@ -13867,7 +13863,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>68</v>
       </c>
@@ -13887,7 +13883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>68</v>
       </c>
@@ -13907,7 +13903,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>68</v>
       </c>
@@ -13927,7 +13923,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>68</v>
       </c>
@@ -13947,7 +13943,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>68</v>
       </c>
@@ -13967,7 +13963,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>68</v>
       </c>
@@ -13987,7 +13983,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>68</v>
       </c>
@@ -14007,7 +14003,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>68</v>
       </c>
@@ -14027,7 +14023,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>68</v>
       </c>
@@ -14047,7 +14043,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>68</v>
       </c>
@@ -14067,7 +14063,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>68</v>
       </c>
@@ -14087,7 +14083,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>68</v>
       </c>
@@ -14107,7 +14103,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>68</v>
       </c>
@@ -14127,7 +14123,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>68</v>
       </c>
@@ -14147,7 +14143,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>68</v>
       </c>
@@ -14167,7 +14163,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>68</v>
       </c>
@@ -14187,7 +14183,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>68</v>
       </c>
@@ -14207,7 +14203,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>68</v>
       </c>
@@ -14227,7 +14223,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>68</v>
       </c>
@@ -14247,7 +14243,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>68</v>
       </c>
@@ -14267,7 +14263,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>68</v>
       </c>
@@ -14287,7 +14283,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>68</v>
       </c>
@@ -14307,7 +14303,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>68</v>
       </c>
@@ -14327,7 +14323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>68</v>
       </c>
@@ -14347,7 +14343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>68</v>
       </c>
@@ -14367,7 +14363,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>68</v>
       </c>
@@ -14387,7 +14383,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>68</v>
       </c>
@@ -14407,7 +14403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>68</v>
       </c>
@@ -14427,7 +14423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>68</v>
       </c>
@@ -14447,7 +14443,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>68</v>
       </c>
@@ -14467,7 +14463,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>68</v>
       </c>
@@ -14487,7 +14483,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>68</v>
       </c>
@@ -14507,7 +14503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>68</v>
       </c>
@@ -14527,7 +14523,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>68</v>
       </c>
@@ -14547,7 +14543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>68</v>
       </c>
@@ -14567,7 +14563,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>68</v>
       </c>
@@ -14587,7 +14583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>68</v>
       </c>
@@ -14607,7 +14603,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>68</v>
       </c>
@@ -14627,7 +14623,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>68</v>
       </c>
@@ -14647,7 +14643,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>68</v>
       </c>
@@ -14667,7 +14663,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>68</v>
       </c>
@@ -14687,7 +14683,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>68</v>
       </c>
@@ -14707,7 +14703,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>68</v>
       </c>
@@ -14730,7 +14726,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>68</v>
       </c>
@@ -14750,7 +14746,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>68</v>
       </c>
@@ -14770,7 +14766,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>68</v>
       </c>
@@ -14790,7 +14786,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>68</v>
       </c>
@@ -14810,7 +14806,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>68</v>
       </c>
@@ -14830,7 +14826,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>68</v>
       </c>
@@ -14850,7 +14846,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>68</v>
       </c>
@@ -14870,7 +14866,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>68</v>
       </c>
@@ -14890,7 +14886,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>68</v>
       </c>
@@ -14910,7 +14906,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>68</v>
       </c>
@@ -14930,7 +14926,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>68</v>
       </c>
@@ -14950,7 +14946,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>68</v>
       </c>
@@ -14970,7 +14966,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>68</v>
       </c>
@@ -14990,7 +14986,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>68</v>
       </c>
@@ -15010,7 +15006,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>68</v>
       </c>
@@ -15030,7 +15026,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>68</v>
       </c>
@@ -15050,7 +15046,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>68</v>
       </c>
@@ -15074,26 +15070,28 @@
   <autoFilter ref="A1:F658" xr:uid="{B925D432-9B48-4F38-A524-A44B446B2B80}">
     <filterColumn colId="2">
       <filters>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED COBRE PLUS COM_ADJ_002"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED COBRE PLUS COM_ADJ_003"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED COBRE PLUS COM_ADJ_004"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED COBRE PLUS COM_ADJ_009"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED COBRE PLUS COM_ADJ_010"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED FIBRA  PLUS COM_ADJ_002"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED FIBRA  PLUS COM_ADJ_003"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED FIBRA  PLUS COM_ADJ_004"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED FIBRA  PLUS COM_ADJ_009"/>
-        <filter val="OPERACIÓN FIJA SERV MULTI-EXPERTO RED FIBRA  PLUS COM_ADJ_010"/>
-        <filter val="OPERACIÓN MOVIL SERV MULTI-EXPERTO RED MÓVIL COM_ADJ_002"/>
-        <filter val="OPERACIÓN MOVIL SERV MULTI-EXPERTO RED MÓVIL COM_ADJ_003"/>
-        <filter val="OPERACIÓN MOVIL SERV MULTI-EXPERTO RED MÓVIL COM_ADJ_004"/>
-        <filter val="OPERACIÓN MOVIL SERV MULTI-EXPERTO RED MÓVIL COM_ADJ_009"/>
-        <filter val="OPERACIÓN MOVIL SERV MULTI-EXPERTO RED MÓVIL COM_ADJ_010"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="LARI"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_001"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_002"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_003"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_004"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_005"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_006"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_007"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_008"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_009"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_010"/>
+        <filter val="OPERACIÓN FIJA SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_011"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_001"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_002"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_003"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_004"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_005"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_006"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_007"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_008"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_009"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_010"/>
+        <filter val="OPERACIÓN MOVIL SERV JEFE ESPECIALISTA DE ATENCIÓN EN CAMPO COM_ADJ_011"/>
       </filters>
     </filterColumn>
   </autoFilter>
